--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -431,6 +431,9 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -444,6 +447,9 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -459,6 +465,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -473,9 +482,6 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -489,6 +495,9 @@
       </c>
       <c r="D6" t="s">
         <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
